--- a/cosas.xlsx
+++ b/cosas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ul13m\Documents\GitHub\Arquitectura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AF7160-8F2F-4736-8DE5-CFC6ADA4D31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA5224F-8DCA-4D92-9AB5-5D252138E136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3525" yWindow="1500" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,12 +152,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,13 +189,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +478,7 @@
   <dimension ref="C3:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,22 +539,22 @@
       <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
@@ -573,25 +566,25 @@
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -603,25 +596,25 @@
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
@@ -629,25 +622,25 @@
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cosas.xlsx
+++ b/cosas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ul13m\Documents\GitHub\Arquitectura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA5224F-8DCA-4D92-9AB5-5D252138E136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE33B33-6486-43F8-B0EE-4B44F4939FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3525" yWindow="1500" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="C3:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
       <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="4" t="s">

--- a/cosas.xlsx
+++ b/cosas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ul13m\Documents\GitHub\Arquitectura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE33B33-6486-43F8-B0EE-4B44F4939FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7912526C-B3D5-4C42-8A88-F124B8B57461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3525" yWindow="1500" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Estructura</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>Restaurar clave</t>
+  </si>
+  <si>
+    <t>reportes</t>
+  </si>
+  <si>
+    <t>Costos</t>
+  </si>
+  <si>
+    <t>Proyecciones ventas</t>
+  </si>
+  <si>
+    <t>Proyecciones gastos</t>
   </si>
 </sst>
 </file>
@@ -136,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +170,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,12 +207,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:L7"/>
+  <dimension ref="C3:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,9 +511,10 @@
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -523,10 +543,13 @@
         <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
@@ -542,21 +565,24 @@
       <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
@@ -569,24 +595,27 @@
       <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
@@ -599,24 +628,27 @@
       <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3" t="s">
@@ -625,22 +657,23 @@
       <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cosas.xlsx
+++ b/cosas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ul13m\Documents\GitHub\Arquitectura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7912526C-B3D5-4C42-8A88-F124B8B57461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A2E3F6-D6E6-41FA-9DD8-CD6F79042B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="1500" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="1500" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,12 +170,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,13 +201,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,7 +490,7 @@
   <dimension ref="C3:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +603,7 @@
       <c r="K5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M5" s="4"/>
@@ -643,7 +636,7 @@
       <c r="K6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="4"/>

--- a/cosas.xlsx
+++ b/cosas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ul13m\Documents\GitHub\Arquitectura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A2E3F6-D6E6-41FA-9DD8-CD6F79042B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC07016-9FD4-4101-8C6C-5D33657633C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2970" yWindow="1500" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="C3:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +505,7 @@
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
